--- a/files/auto_novosibirsk_yakutsk.xlsx
+++ b/files/auto_novosibirsk_yakutsk.xlsx
@@ -688,7 +688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -747,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24.95" customHeight="1">
@@ -755,13 +755,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="10">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="13">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24.95" customHeight="1">
@@ -769,13 +769,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="10">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="13">
-        <v>25.5</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24.95" customHeight="1">
@@ -783,13 +783,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="10">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="13">
-        <v>25</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1">
@@ -797,13 +797,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="10">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13">
-        <v>24.5</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24.95" customHeight="1" thickBot="1">
@@ -811,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="11">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="14">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
